--- a/Base de datos Python/Base datos Arreglada/Base_Datos_2013.xlsx
+++ b/Base de datos Python/Base datos Arreglada/Base_Datos_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\Base de datos Python\Base datos Arreglada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370ED76-BD46-48A1-879A-0B26D349AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E1C3D3-AF7D-43D7-B83D-BBCB0A243DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{13D18EC4-C1E9-4153-A302-900B996CA229}"/>
   </bookViews>
